--- a/templates/secondTable.xlsx
+++ b/templates/secondTable.xlsx
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -512,10 +512,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5454545454545454</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -533,13 +533,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4545454545454545</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6818181818181818</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -556,16 +556,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6818181818181818</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6818181818181818</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -581,19 +581,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6818181818181818</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5909090909090909</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5454545454545454</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -608,22 +608,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4545454545454545</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3181818181818182</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5909090909090909</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4090909090909091</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5909090909090909</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -640,22 +640,22 @@
         <v>0.5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5909090909090909</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6818181818181818</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -668,28 +668,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6818181818181818</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4545454545454545</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5909090909090909</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -701,31 +701,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4545454545454545</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6363636363636364</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4545454545454545</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4090909090909091</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5909090909090909</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -736,34 +736,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4545454545454545</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6818181818181818</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6818181818181818</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4545454545454545</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6363636363636364</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -773,37 +773,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4090909090909091</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6363636363636364</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0.5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4545454545454545</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.5</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4090909090909091</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6363636363636364</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6818181818181818</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr"/>
     </row>
